--- a/terminal_app/input.xlsx
+++ b/terminal_app/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mxchen/Documents/GitHub/SelfAutomation/Python Automation/venmo_automation/terminal_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72381D5-65B6-A444-A242-49918FBF2B31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EB146C-485E-984D-8361-DE85904A2744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17380" yWindow="3080" windowWidth="28040" windowHeight="17440" xr2:uid="{EA29A761-75FF-5148-8AA2-F9DE586D485C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -47,13 +47,22 @@
     <t>Type</t>
   </si>
   <si>
-    <t>ishan0102</t>
-  </si>
-  <si>
-    <t>test app</t>
-  </si>
-  <si>
-    <t>r</t>
+    <t>UniqueUser01</t>
+  </si>
+  <si>
+    <t>UniqueUser02</t>
+  </si>
+  <si>
+    <t>A note for this transaction</t>
+  </si>
+  <si>
+    <t>A note for this other transaction</t>
+  </si>
+  <si>
+    <t>"s" or "S" to send</t>
+  </si>
+  <si>
+    <t>"r" or "R" to request</t>
   </si>
 </sst>
 </file>
@@ -433,15 +442,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -466,39 +475,30 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
